--- a/doc/base/Statusbericht.xlsx
+++ b/doc/base/Statusbericht.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nils:</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>LoginDB</t>
+  </si>
+  <si>
+    <t>addUser nonEmtpy Validation added and some(user) handling from getUser function implemented</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C5"/>
+  <dimension ref="A4:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +410,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/base/Statusbericht.xlsx
+++ b/doc/base/Statusbericht.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Nils:</t>
   </si>
@@ -31,6 +31,63 @@
   </si>
   <si>
     <t>addUser nonEmtpy Validation added and some(user) handling from getUser function implemented</t>
+  </si>
+  <si>
+    <t>see GitHub commit name</t>
+  </si>
+  <si>
+    <t>Probleme:</t>
+  </si>
+  <si>
+    <t>ErrorHandling allgemein</t>
+  </si>
+  <si>
+    <t>Price Manipulation Prevention</t>
+  </si>
+  <si>
+    <t>es fehlt noch:</t>
+  </si>
+  <si>
+    <t>Gesamtumsatz</t>
+  </si>
+  <si>
+    <t>Admin read/write rechte</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>pw login</t>
+  </si>
+  <si>
+    <t>email bestätigung wenn email vorhanden</t>
+  </si>
+  <si>
+    <t>gute auswertungen</t>
+  </si>
+  <si>
+    <t>Allg. Auswertungen (--&gt; Pizzen/ Bestellung)</t>
+  </si>
+  <si>
+    <t>see GitHub commit name -&gt; jetzt schon fertig für M1</t>
+  </si>
+  <si>
+    <t>view unterstützung von mehreren Produktbestellungen auf einmal sowie mehrere verschiedene Extras pro Item</t>
+  </si>
+  <si>
+    <t>Problem:</t>
+  </si>
+  <si>
+    <t>&lt;-- Auslesen und showOrders für mehrere Items pro Order und mehrere extras pro Item funktioniert schon</t>
+  </si>
+  <si>
+    <t>evtl Lösung durch Warenkorb Implementierung</t>
+  </si>
+  <si>
+    <t>evtl Problem</t>
+  </si>
+  <si>
+    <t>User Registrierung check ob Name schon vorhanden fehlt (aber in Braun tests doppelt registierung von user)</t>
   </si>
 </sst>
 </file>
@@ -383,15 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C6"/>
+  <dimension ref="A4:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,6 +476,111 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/base/Statusbericht.xlsx
+++ b/doc/base/Statusbericht.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A4:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,5 +583,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>